--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -94,58 +94,58 @@
     <t>help</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -775,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>0.8899082568807339</v>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>0.8620689655172413</v>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0.85</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>0.8357142857142857</v>
@@ -1157,7 +1157,7 @@
         <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>0.797979797979798</v>
@@ -1257,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>0.7632978723404256</v>
@@ -1307,28 +1307,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1357,28 +1357,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N13">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O13">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1407,28 +1407,28 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1507,28 +1507,28 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.6861538461538461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1560,25 +1560,25 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1610,25 +1610,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1736,25 +1736,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1282051282051282</v>
+        <v>0.01539119281744335</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>238</v>
+        <v>804</v>
       </c>
       <c r="E21">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F21">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>102</v>
+        <v>2303</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
@@ -1786,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01539119281744335</v>
+        <v>0.01314217443249701</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>804</v>
+        <v>491</v>
       </c>
       <c r="E22">
         <v>0.96</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2303</v>
+        <v>1652</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>47</v>
@@ -1832,30 +1832,6 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.01314217443249701</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>491</v>
-      </c>
-      <c r="E23">
-        <v>0.96</v>
-      </c>
-      <c r="F23">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1652</v>
-      </c>
       <c r="J23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2897,7 +2873,7 @@
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K63">
         <v>0.2500814067079127</v>
@@ -3131,7 +3107,7 @@
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K72">
         <v>0.2211221122112211</v>
